--- a/benchmarking/results/spot_llama-3-8b_ep10_training_ds_v16_3-17_1-2_lora_eval.xlsx
+++ b/benchmarking/results/spot_llama-3-8b_ep10_training_ds_v16_3-17_1-2_lora_eval.xlsx
@@ -1527,7 +1527,7 @@
         <v>3</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T5" t="n">
         <v>3</v>
@@ -6984,10 +6984,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -7005,13 +7005,13 @@
         <v>0</v>
       </c>
       <c r="AA29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB29" t="n">
         <v>0</v>
       </c>
       <c r="AC29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -9411,10 +9411,10 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -9432,13 +9432,13 @@
         <v>0</v>
       </c>
       <c r="AA39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB39" t="n">
         <v>0</v>
       </c>
       <c r="AC39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -12919,10 +12919,10 @@
         <v>2</v>
       </c>
       <c r="T54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
@@ -12940,13 +12940,13 @@
         <v>0</v>
       </c>
       <c r="AA54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB54" t="n">
         <v>0</v>
       </c>
       <c r="AC54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD54" t="n">
         <v>0</v>
@@ -12979,10 +12979,10 @@
         <v>0</v>
       </c>
       <c r="AN54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP54" t="n">
         <v>0</v>
@@ -12994,19 +12994,19 @@
         <v>0</v>
       </c>
       <c r="AS54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX54" t="n">
         <v>0</v>
@@ -14511,10 +14511,10 @@
         <v>1</v>
       </c>
       <c r="T61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V61" t="n">
         <v>0</v>
@@ -14532,13 +14532,13 @@
         <v>1</v>
       </c>
       <c r="AA61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB61" t="n">
         <v>1</v>
       </c>
       <c r="AC61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD61" t="n">
         <v>0</v>
@@ -20235,13 +20235,13 @@
         <v>0</v>
       </c>
       <c r="Z85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA85" t="n">
         <v>0</v>
       </c>
       <c r="AB85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC85" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>3</v>
       </c>
       <c r="S118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T118" t="n">
         <v>2</v>
@@ -43104,13 +43104,13 @@
         <v>0</v>
       </c>
       <c r="Z189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA189" t="n">
         <v>0</v>
       </c>
       <c r="AB189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC189" t="n">
         <v>0</v>
@@ -47407,7 +47407,7 @@
         <v>2</v>
       </c>
       <c r="U209" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V209" t="n">
         <v>0</v>
@@ -47464,10 +47464,10 @@
         <v>1</v>
       </c>
       <c r="AN209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP209" t="n">
         <v>0</v>
@@ -47479,16 +47479,16 @@
         <v>0</v>
       </c>
       <c r="AS209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW209" t="b">
         <v>0</v>

--- a/benchmarking/results/spot_llama-3-8b_ep10_training_ds_v16_3-17_1-2_lora_eval.xlsx
+++ b/benchmarking/results/spot_llama-3-8b_ep10_training_ds_v16_3-17_1-2_lora_eval.xlsx
@@ -9411,10 +9411,10 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -9432,13 +9432,13 @@
         <v>0</v>
       </c>
       <c r="AA39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB39" t="n">
         <v>0</v>
       </c>
       <c r="AC39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -12919,10 +12919,10 @@
         <v>2</v>
       </c>
       <c r="T54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
@@ -12940,13 +12940,13 @@
         <v>0</v>
       </c>
       <c r="AA54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB54" t="n">
         <v>0</v>
       </c>
       <c r="AC54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD54" t="n">
         <v>0</v>
@@ -12979,10 +12979,10 @@
         <v>0</v>
       </c>
       <c r="AN54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP54" t="n">
         <v>0</v>
@@ -12994,19 +12994,19 @@
         <v>0</v>
       </c>
       <c r="AS54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX54" t="n">
         <v>0</v>
@@ -14266,10 +14266,10 @@
         <v>0</v>
       </c>
       <c r="T60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
@@ -14278,7 +14278,7 @@
         <v>0</v>
       </c>
       <c r="X60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y60" t="n">
         <v>0</v>
@@ -14287,13 +14287,13 @@
         <v>1</v>
       </c>
       <c r="AA60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD60" t="n">
         <v>0</v>
@@ -20235,13 +20235,13 @@
         <v>0</v>
       </c>
       <c r="Z85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA85" t="n">
         <v>0</v>
       </c>
       <c r="AB85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC85" t="n">
         <v>0</v>
@@ -34518,10 +34518,10 @@
         <v>1</v>
       </c>
       <c r="T148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V148" t="n">
         <v>0</v>
@@ -34536,16 +34536,16 @@
         <v>0</v>
       </c>
       <c r="Z148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD148" t="n">
         <v>0</v>
@@ -34578,10 +34578,10 @@
         <v>0</v>
       </c>
       <c r="AN148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP148" t="n">
         <v>0</v>
@@ -34593,19 +34593,19 @@
         <v>0</v>
       </c>
       <c r="AS148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX148" t="inlineStr"/>
       <c r="AY148" t="n">
@@ -37518,7 +37518,7 @@
         <v>0</v>
       </c>
       <c r="X162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y162" t="n">
         <v>0</v>
@@ -41488,10 +41488,10 @@
         <v>0</v>
       </c>
       <c r="T181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V181" t="n">
         <v>0</v>
@@ -41509,13 +41509,13 @@
         <v>0</v>
       </c>
       <c r="AA181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB181" t="n">
         <v>1</v>
       </c>
       <c r="AC181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD181" t="n">
         <v>0</v>
@@ -41908,10 +41908,10 @@
         <v>0</v>
       </c>
       <c r="T183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V183" t="n">
         <v>0</v>
@@ -41926,16 +41926,16 @@
         <v>0</v>
       </c>
       <c r="Z183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD183" t="n">
         <v>0</v>
@@ -43104,13 +43104,13 @@
         <v>0</v>
       </c>
       <c r="Z189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA189" t="n">
         <v>0</v>
       </c>
       <c r="AB189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC189" t="n">
         <v>0</v>
@@ -43281,10 +43281,10 @@
         <v>0</v>
       </c>
       <c r="T190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V190" t="n">
         <v>0</v>
@@ -43293,22 +43293,22 @@
         <v>0</v>
       </c>
       <c r="X190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y190" t="n">
         <v>0</v>
       </c>
       <c r="Z190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD190" t="n">
         <v>0</v>
@@ -43329,7 +43329,7 @@
         <v>0</v>
       </c>
       <c r="AJ190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK190" t="n">
         <v>0</v>
@@ -44494,10 +44494,10 @@
         <v>0</v>
       </c>
       <c r="T196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V196" t="n">
         <v>0</v>
@@ -44515,13 +44515,13 @@
         <v>1</v>
       </c>
       <c r="AA196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD196" t="n">
         <v>0</v>
@@ -44705,7 +44705,7 @@
         <v>0</v>
       </c>
       <c r="T197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U197" t="n">
         <v>0</v>
@@ -44924,7 +44924,7 @@
         <v>1</v>
       </c>
       <c r="T198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U198" t="n">
         <v>1</v>
@@ -45157,7 +45157,7 @@
         <v>0</v>
       </c>
       <c r="T199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U199" t="n">
         <v>1</v>
@@ -45358,7 +45358,7 @@
         <v>0</v>
       </c>
       <c r="T200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U200" t="n">
         <v>0</v>
@@ -45565,7 +45565,7 @@
         <v>1</v>
       </c>
       <c r="T201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U201" t="n">
         <v>1</v>
@@ -45775,7 +45775,7 @@
         <v>1</v>
       </c>
       <c r="T202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U202" t="n">
         <v>1</v>
@@ -45999,7 +45999,7 @@
         <v>1</v>
       </c>
       <c r="T203" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U203" t="n">
         <v>2</v>
@@ -46020,13 +46020,13 @@
         <v>0</v>
       </c>
       <c r="AA203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB203" t="n">
         <v>0</v>
       </c>
       <c r="AC203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD203" t="n">
         <v>0</v>
@@ -46224,7 +46224,7 @@
         <v>0</v>
       </c>
       <c r="T204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U204" t="n">
         <v>1</v>
@@ -46682,7 +46682,7 @@
         <v>2</v>
       </c>
       <c r="T206" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U206" t="n">
         <v>2</v>
@@ -47170,7 +47170,7 @@
         <v>1</v>
       </c>
       <c r="T208" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U208" t="n">
         <v>1</v>
@@ -47404,10 +47404,10 @@
         <v>1</v>
       </c>
       <c r="T209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V209" t="n">
         <v>0</v>
@@ -47464,10 +47464,10 @@
         <v>1</v>
       </c>
       <c r="AN209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP209" t="n">
         <v>0</v>
@@ -47479,16 +47479,16 @@
         <v>0</v>
       </c>
       <c r="AS209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW209" t="b">
         <v>0</v>
@@ -47648,7 +47648,7 @@
         <v>2</v>
       </c>
       <c r="T210" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U210" t="n">
         <v>2</v>
@@ -47903,7 +47903,7 @@
         <v>2</v>
       </c>
       <c r="T211" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U211" t="n">
         <v>2</v>
@@ -48121,7 +48121,7 @@
         <v>0</v>
       </c>
       <c r="T212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U212" t="n">
         <v>0</v>
@@ -48365,7 +48365,7 @@
         <v>2</v>
       </c>
       <c r="T213" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U213" t="n">
         <v>2</v>
@@ -48607,7 +48607,7 @@
         <v>2</v>
       </c>
       <c r="T214" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U214" t="n">
         <v>2</v>
@@ -48835,7 +48835,7 @@
         <v>1</v>
       </c>
       <c r="T215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U215" t="n">
         <v>1</v>
@@ -49085,7 +49085,7 @@
         <v>2</v>
       </c>
       <c r="T216" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U216" t="n">
         <v>2</v>
@@ -49326,7 +49326,7 @@
         <v>2</v>
       </c>
       <c r="T217" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U217" t="n">
         <v>2</v>
@@ -49581,7 +49581,7 @@
         <v>0</v>
       </c>
       <c r="T218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U218" t="n">
         <v>0</v>
@@ -49824,7 +49824,7 @@
         <v>2</v>
       </c>
       <c r="T219" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U219" t="n">
         <v>2</v>
@@ -50067,7 +50067,7 @@
         <v>1</v>
       </c>
       <c r="T220" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U220" t="n">
         <v>1</v>
@@ -50299,7 +50299,7 @@
         <v>0</v>
       </c>
       <c r="T221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U221" t="n">
         <v>0</v>
@@ -50526,7 +50526,7 @@
         <v>1</v>
       </c>
       <c r="T222" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U222" t="n">
         <v>1</v>
@@ -50756,7 +50756,7 @@
         <v>1</v>
       </c>
       <c r="T223" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U223" t="n">
         <v>1</v>
@@ -51010,7 +51010,7 @@
         <v>1</v>
       </c>
       <c r="T224" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U224" t="n">
         <v>1</v>
@@ -51250,7 +51250,7 @@
         <v>0</v>
       </c>
       <c r="T225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U225" t="n">
         <v>0</v>
@@ -51501,7 +51501,7 @@
         <v>2</v>
       </c>
       <c r="T226" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U226" t="n">
         <v>2</v>
@@ -51745,7 +51745,7 @@
         <v>2</v>
       </c>
       <c r="T227" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U227" t="n">
         <v>2</v>
@@ -51974,7 +51974,7 @@
         <v>1</v>
       </c>
       <c r="T228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U228" t="n">
         <v>1</v>
@@ -52216,7 +52216,7 @@
         <v>2</v>
       </c>
       <c r="T229" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U229" t="n">
         <v>2</v>
@@ -52477,7 +52477,7 @@
         <v>0</v>
       </c>
       <c r="T230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U230" t="n">
         <v>0</v>
@@ -52725,7 +52725,7 @@
         <v>2</v>
       </c>
       <c r="T231" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U231" t="n">
         <v>2</v>
@@ -52970,7 +52970,7 @@
         <v>1</v>
       </c>
       <c r="T232" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U232" t="n">
         <v>2</v>
